--- a/biology/Médecine/Brevet_professionnel_de_préparateur_en_pharmacie/Brevet_professionnel_de_préparateur_en_pharmacie.xlsx
+++ b/biology/Médecine/Brevet_professionnel_de_préparateur_en_pharmacie/Brevet_professionnel_de_préparateur_en_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_pr%C3%A9parateur_en_pharmacie</t>
+          <t>Brevet_professionnel_de_préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brevet professionnel de préparateur en pharmacie est un diplôme de niveau IV (équivalent au niveau baccalauréat) qui se prépare en deux ou trois ans après le baccalauréat (S, STL, St2s ou baccalauréat professionnel ASSP de préférence). Il est obligatoire pour exercer la profession de préparateur en pharmacie.
 Il est effectué en alternance sous contrat d'apprentissage ou de professionnalisation à un rythme de 12 heures de cours par semaine et 23 heures de travail en entreprise (pharmacie d'officine ou pharmacie hospitalière).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_pr%C3%A9parateur_en_pharmacie</t>
+          <t>Brevet_professionnel_de_préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contenu de la formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chimie (générale, inorganique, organique)
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_pr%C3%A9parateur_en_pharmacie</t>
+          <t>Brevet_professionnel_de_préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Coefficients et durées des épreuves</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>U10 – Chimie biologie : coef. 4, durée 2 heures 30 minutes.
 U20 – Pharmacie Galénique : coef. 3, durée 2 heures.
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_pr%C3%A9parateur_en_pharmacie</t>
+          <t>Brevet_professionnel_de_préparateur_en_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Poursuite d'études</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le BP le préparateur en pharmacie effectuer le diplôme de préparateur en pharmacie hospitalière afin de pouvoir exercer sa profession au sein d'un établissement public de santé : CHU, HIA, CH, EHPAD, etc.
 Il peut aussi se spécialiser dans un domaine en rapport avec la pharmacie — oncologie, orthopédie, pharmacie vétérinaire, dermo-cosmétique, etc. — en passant un diplôme universitaire ou un certificat de qualification professionnelle.
